--- a/Data/LCY Kids Accounts.xlsx
+++ b/Data/LCY Kids Accounts.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>TC</t>
   </si>
@@ -51,6 +51,12 @@
   </si>
   <si>
     <t>17704809</t>
+  </si>
+  <si>
+    <t>1008617899</t>
+  </si>
+  <si>
+    <t>17706586</t>
   </si>
 </sst>
 </file>
@@ -95,7 +101,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -157,6 +163,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Data/LCY Kids Accounts.xlsx
+++ b/Data/LCY Kids Accounts.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>TC</t>
   </si>
@@ -57,6 +57,21 @@
   </si>
   <si>
     <t>17706586</t>
+  </si>
+  <si>
+    <t>118518</t>
+  </si>
+  <si>
+    <t>1008784258</t>
+  </si>
+  <si>
+    <t>17866752</t>
+  </si>
+  <si>
+    <t>1008784270</t>
+  </si>
+  <si>
+    <t>17866761</t>
   </si>
 </sst>
 </file>
@@ -101,7 +116,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -177,6 +192,34 @@
         <v>7</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Data/LCY Kids Accounts.xlsx
+++ b/Data/LCY Kids Accounts.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t>TC</t>
   </si>
@@ -72,6 +72,24 @@
   </si>
   <si>
     <t>17866761</t>
+  </si>
+  <si>
+    <t>1008784402</t>
+  </si>
+  <si>
+    <t>17898937</t>
+  </si>
+  <si>
+    <t>1008784413</t>
+  </si>
+  <si>
+    <t>17898952</t>
+  </si>
+  <si>
+    <t>1008784417</t>
+  </si>
+  <si>
+    <t>17898955</t>
   </si>
 </sst>
 </file>
@@ -116,7 +134,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -220,6 +238,48 @@
         <v>7</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
